--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value492.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value492.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7495473683192376</v>
+        <v>1.297455310821533</v>
       </c>
       <c r="B1">
-        <v>1.092318525087564</v>
+        <v>3.266421318054199</v>
       </c>
       <c r="C1">
-        <v>2.330218251146791</v>
+        <v>5.773363590240479</v>
       </c>
       <c r="D1">
-        <v>3.922223441269129</v>
+        <v>1.741952419281006</v>
       </c>
       <c r="E1">
-        <v>1.567368078502246</v>
+        <v>1.021064281463623</v>
       </c>
     </row>
   </sheetData>
